--- a/IOexcel/06-05-2024.xlsx
+++ b/IOexcel/06-05-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8470C4BB-E0A5-4266-ADBC-7BC68ECDC7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69629AD-B520-4B05-A570-C3B4E711A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="156">
   <si>
     <t>Mã máy</t>
   </si>
@@ -839,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:I71"/>
+      <selection activeCell="A57" sqref="A57:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,6 +2303,121 @@
         <v>15</v>
       </c>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IOexcel/06-05-2024.xlsx
+++ b/IOexcel/06-05-2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69629AD-B520-4B05-A570-C3B4E711A793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF682F0F-BFAD-4392-ABD2-B2E630C28F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="156">
   <si>
     <t>Mã máy</t>
   </si>
@@ -839,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:G63"/>
@@ -2303,121 +2303,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IOexcel/06-05-2024.xlsx
+++ b/IOexcel/06-05-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF682F0F-BFAD-4392-ABD2-B2E630C28F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AE2DE3-95C8-447B-8C9E-4CB29661CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="156">
   <si>
     <t>Mã máy</t>
   </si>
@@ -839,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:G63"/>
+      <selection activeCell="H56" sqref="A53:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2199,110 +2199,6 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
